--- a/Classification_excel.xlsx
+++ b/Classification_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier_ld/Desktop/Becode-cloud/Projects/CASKPMG/CASKPMG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A682F9A9-8F07-2D4D-868E-F72B7A87A408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FAA650AD-2461-434A-ACB1-9E1F338B0904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>INDUSTRIE DE LA RECUPERATION</t>
   </si>
   <si>
-    <t>RECUPERATION</t>
-  </si>
-  <si>
     <t>INDUSTRIE SIDERURGIQUE</t>
   </si>
   <si>
@@ -668,6 +665,9 @@
   </si>
   <si>
     <t>Indemnité de reclassement</t>
+  </si>
+  <si>
+    <t>récupération</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1150,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1160,10 +1160,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1173,10 +1173,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1186,10 +1186,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1199,10 +1199,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1212,10 +1212,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1225,10 +1225,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1238,10 +1238,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1251,10 +1251,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1264,10 +1264,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1277,10 +1277,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1290,10 +1290,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1303,10 +1303,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1316,10 +1316,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1329,10 +1329,10 @@
         <v>14</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1342,10 +1342,10 @@
         <v>14</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1355,10 +1355,10 @@
         <v>14</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1368,10 +1368,10 @@
         <v>14</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1381,10 +1381,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1394,10 +1394,10 @@
         <v>14</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1407,10 +1407,10 @@
         <v>14</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1420,10 +1420,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1433,10 +1433,10 @@
         <v>14</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1446,10 +1446,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1459,10 +1459,10 @@
         <v>14</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1472,10 +1472,10 @@
         <v>14</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1485,10 +1485,10 @@
         <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1498,10 +1498,10 @@
         <v>14</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1511,10 +1511,10 @@
         <v>14</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1524,10 +1524,10 @@
         <v>14</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1537,10 +1537,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1550,10 +1550,10 @@
         <v>14</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1563,10 +1563,10 @@
         <v>14</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1576,10 +1576,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1589,10 +1589,10 @@
         <v>14</v>
       </c>
       <c r="B44" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1602,10 +1602,10 @@
         <v>14</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1615,10 +1615,10 @@
         <v>14</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1628,10 +1628,10 @@
         <v>14</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1641,10 +1641,10 @@
         <v>14</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1654,10 +1654,10 @@
         <v>14</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1667,10 +1667,10 @@
         <v>14</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1680,10 +1680,10 @@
         <v>14</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1693,10 +1693,10 @@
         <v>14</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1706,10 +1706,10 @@
         <v>14</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1719,10 +1719,10 @@
         <v>14</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1732,10 +1732,10 @@
         <v>14</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1745,10 +1745,10 @@
         <v>14</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1758,10 +1758,10 @@
         <v>14</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -1771,10 +1771,10 @@
         <v>14</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1784,1498 +1784,1497 @@
         <v>14</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" ht="15">
       <c r="A60" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" ht="15">
       <c r="A61" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C61" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" ht="15">
       <c r="A62" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C62" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" ht="15">
       <c r="A63" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C63" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" ht="15">
       <c r="A64" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C64" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" ht="15">
       <c r="A65" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C65" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" ht="15">
       <c r="A66" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C66" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
     <row r="67" spans="1:5" ht="15">
       <c r="A67" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C67" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" ht="15">
       <c r="A68" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C68" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:5" ht="15">
       <c r="A69" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C69" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
     <row r="70" spans="1:5" ht="15">
       <c r="A70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C70" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" ht="15">
       <c r="A71" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C71" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
     <row r="72" spans="1:5" ht="15">
       <c r="A72" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="C72" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
     </row>
     <row r="73" spans="1:5" ht="15">
       <c r="A73" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
     <row r="74" spans="1:5" ht="15">
       <c r="A74" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
     <row r="75" spans="1:5" ht="15">
       <c r="A75" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
     <row r="76" spans="1:5" ht="15">
       <c r="A76" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:5" ht="15">
       <c r="A77" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="1:5" ht="15">
       <c r="A78" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="15">
       <c r="A79" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" ht="15">
       <c r="A80" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:5" ht="15">
       <c r="A81" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
     </row>
     <row r="82" spans="1:5" ht="15">
       <c r="A82" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
     </row>
     <row r="83" spans="1:5" ht="15">
       <c r="A83" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
     </row>
     <row r="84" spans="1:5" ht="15">
       <c r="A84" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
     <row r="85" spans="1:5" ht="15">
       <c r="A85" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" ht="15">
       <c r="A86" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
     </row>
     <row r="87" spans="1:5" ht="15">
       <c r="A87" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
     </row>
     <row r="88" spans="1:5" ht="15">
       <c r="A88" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
     </row>
     <row r="89" spans="1:5" ht="15">
       <c r="A89" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" ht="15">
       <c r="A90" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" ht="15">
       <c r="A91" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" ht="15">
       <c r="A92" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
     </row>
     <row r="93" spans="1:5" ht="15">
       <c r="A93" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" ht="15">
       <c r="A94" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5" ht="15">
       <c r="A95" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
     </row>
     <row r="96" spans="1:5" ht="15">
       <c r="A96" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
     </row>
     <row r="97" spans="1:5" ht="15">
       <c r="A97" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
     </row>
     <row r="98" spans="1:5" ht="15">
       <c r="A98" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
     </row>
     <row r="99" spans="1:5" ht="15">
       <c r="A99" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
     </row>
     <row r="100" spans="1:5" ht="15">
       <c r="A100" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
     </row>
     <row r="101" spans="1:5" ht="15">
       <c r="A101" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
     </row>
     <row r="102" spans="1:5" ht="15">
       <c r="A102" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
     </row>
     <row r="103" spans="1:5" ht="15">
       <c r="A103" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
     </row>
     <row r="104" spans="1:5" ht="15">
       <c r="A104" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
     </row>
     <row r="105" spans="1:5" ht="15">
       <c r="A105" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B105" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
     </row>
     <row r="106" spans="1:5" ht="15">
       <c r="A106" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
     </row>
     <row r="107" spans="1:5" ht="15">
       <c r="A107" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
     </row>
     <row r="108" spans="1:5" ht="15">
       <c r="A108" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
     </row>
     <row r="109" spans="1:5" ht="15">
       <c r="A109" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5" ht="15">
       <c r="A110" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5" ht="15">
       <c r="A111" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:5" ht="15">
       <c r="A112" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
     </row>
     <row r="113" spans="1:5" ht="15">
       <c r="A113" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B113" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
     </row>
     <row r="114" spans="1:5" ht="15">
       <c r="A114" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
     </row>
     <row r="115" spans="1:5" ht="15">
       <c r="A115" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
     </row>
     <row r="116" spans="1:5" ht="15">
       <c r="A116" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5" ht="15">
       <c r="A117" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
     </row>
     <row r="118" spans="1:5" ht="15">
       <c r="A118" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:5" ht="15">
       <c r="A119" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B119" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
     </row>
     <row r="120" spans="1:5" ht="15">
       <c r="A120" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5" ht="15">
       <c r="A121" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:5" ht="15">
       <c r="A122" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
     </row>
     <row r="123" spans="1:5" ht="15">
       <c r="A123" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
     </row>
     <row r="124" spans="1:5" ht="15">
       <c r="A124" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
     </row>
     <row r="125" spans="1:5" ht="15">
       <c r="A125" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B125" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
     </row>
     <row r="126" spans="1:5" ht="15">
       <c r="A126" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
     </row>
     <row r="127" spans="1:5" ht="15">
       <c r="A127" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
     </row>
     <row r="128" spans="1:5" ht="15">
       <c r="A128" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
     </row>
     <row r="129" spans="1:5" ht="15">
       <c r="A129" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B129" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C129" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
     </row>
     <row r="130" spans="1:5" ht="15">
       <c r="A130" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
     </row>
     <row r="131" spans="1:5" ht="15">
       <c r="A131" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B131" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>172</v>
       </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
     </row>
     <row r="132" spans="1:5" ht="15">
       <c r="A132" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
     </row>
     <row r="133" spans="1:5" ht="15">
       <c r="A133" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
     </row>
     <row r="134" spans="1:5" ht="15">
       <c r="A134" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
     </row>
     <row r="135" spans="1:5" ht="15">
       <c r="A135" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
     </row>
     <row r="136" spans="1:5" ht="15">
       <c r="A136" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
     </row>
     <row r="137" spans="1:5" ht="15">
       <c r="A137" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
     </row>
     <row r="138" spans="1:5" ht="15">
       <c r="A138" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
     </row>
     <row r="139" spans="1:5" ht="15">
       <c r="A139" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B139" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
     </row>
     <row r="140" spans="1:5" ht="15">
       <c r="A140" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
     </row>
     <row r="141" spans="1:5" ht="15">
       <c r="A141" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
     </row>
     <row r="142" spans="1:5" ht="15">
       <c r="A142" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B142" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>184</v>
       </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
     </row>
     <row r="143" spans="1:5" ht="15">
       <c r="A143" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
     </row>
     <row r="144" spans="1:5" ht="15">
       <c r="A144" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
     </row>
     <row r="145" spans="1:5" ht="15">
       <c r="A145" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
     </row>
     <row r="146" spans="1:5" ht="15">
       <c r="A146" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
     </row>
     <row r="147" spans="1:5" ht="15">
       <c r="A147" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
     </row>
     <row r="148" spans="1:5" ht="15">
       <c r="A148" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
     </row>
     <row r="149" spans="1:5" ht="15">
       <c r="A149" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
     </row>
     <row r="150" spans="1:5" ht="15">
       <c r="A150" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
     </row>
     <row r="151" spans="1:5" ht="15">
       <c r="A151" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
     </row>
     <row r="152" spans="1:5" ht="15">
       <c r="A152" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
     </row>
     <row r="153" spans="1:5" ht="15">
       <c r="A153" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
     </row>
     <row r="154" spans="1:5" ht="15">
       <c r="A154" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
     </row>
     <row r="155" spans="1:5" ht="15">
       <c r="A155" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
     </row>
     <row r="156" spans="1:5" ht="15">
       <c r="A156" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
     </row>
     <row r="157" spans="1:5" ht="15">
       <c r="A157" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
     </row>
     <row r="158" spans="1:5" ht="15">
       <c r="A158" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
     </row>
     <row r="159" spans="1:5" ht="15">
       <c r="A159" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
     </row>
     <row r="160" spans="1:5" ht="15">
       <c r="A160" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
     </row>
     <row r="161" spans="1:5" ht="15">
       <c r="A161" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
     </row>
     <row r="162" spans="1:5" ht="15">
       <c r="A162" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
     </row>
     <row r="163" spans="1:5" ht="15">
       <c r="A163" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
     </row>
     <row r="164" spans="1:5" ht="15">
       <c r="A164" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
     </row>
     <row r="165" spans="1:5" ht="15">
       <c r="A165" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
     </row>
     <row r="166" spans="1:5" ht="15">
       <c r="A166" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
     </row>
     <row r="167" spans="1:5" ht="15">
       <c r="A167" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
     </row>
     <row r="168" spans="1:5" ht="15">
       <c r="A168" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
     </row>
     <row r="169" spans="1:5" ht="15">
       <c r="A169" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
     </row>
     <row r="170" spans="1:5" ht="15">
       <c r="A170" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
     </row>
     <row r="171" spans="1:5" ht="15">
       <c r="A171" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
     </row>
     <row r="172" spans="1:5" ht="15">
       <c r="A172" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
     </row>
     <row r="173" spans="1:5" ht="15">
       <c r="A173" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C173" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>

--- a/Classification_excel.xlsx
+++ b/Classification_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier_ld/Desktop/Becode-cloud/Projects/CASKPMG/CASKPMG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1C8D23-5C98-2F4F-896E-4829D5776B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD550905-60CC-6A4F-9332-ED8C065F54D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Classification_dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classification_dataset!$A$1:$C$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classification_dataset!$A$1:$X$159</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -932,14 +932,14 @@
   </sheetPr>
   <dimension ref="A1:X159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="78.1640625" customWidth="1"/>
+    <col min="2" max="2" width="93.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
     <col min="4" max="5" width="17" customWidth="1"/>
   </cols>
